--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DFD145-7A42-4E3E-850E-B378D8FED9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEA743-E24D-4299-BAB0-5F963733134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,6 +824,46 @@
         <v>9053</v>
       </c>
       <c r="F16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>9052</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>9053</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>68</v>
+      </c>
+      <c r="C18">
+        <v>9052</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>9053</v>
+      </c>
+      <c r="F18" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEA743-E24D-4299-BAB0-5F963733134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D4F68-C834-4971-8E9A-5AEA543D1550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -864,6 +864,46 @@
         <v>9053</v>
       </c>
       <c r="F18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <v>9052</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>9053</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>76</v>
+      </c>
+      <c r="C20">
+        <v>9052</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>9053</v>
+      </c>
+      <c r="F20" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D4F68-C834-4971-8E9A-5AEA543D1550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C39ABEA-317F-4A3D-8083-F6DF085C7C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -904,6 +904,26 @@
         <v>9053</v>
       </c>
       <c r="F20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>9052</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>9053</v>
+      </c>
+      <c r="F21" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C39ABEA-317F-4A3D-8083-F6DF085C7C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF6807-620D-4C39-A441-FFE68B6EC6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -924,6 +924,26 @@
         <v>9053</v>
       </c>
       <c r="F21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>84</v>
+      </c>
+      <c r="C22">
+        <v>9052</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>9053</v>
+      </c>
+      <c r="F22" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF6807-620D-4C39-A441-FFE68B6EC6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F4A0B-46E2-4414-8853-2CB62FF2F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxPass" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -944,6 +944,46 @@
         <v>9053</v>
       </c>
       <c r="F22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>88</v>
+      </c>
+      <c r="C23">
+        <v>9052</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>9053</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>92</v>
+      </c>
+      <c r="C24">
+        <v>9052</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>9053</v>
+      </c>
+      <c r="F24" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F4A0B-46E2-4414-8853-2CB62FF2F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A55EB-D1BE-491F-8E8D-2D3CC7AC67A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxPass" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,6 +984,26 @@
         <v>9053</v>
       </c>
       <c r="F24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>96</v>
+      </c>
+      <c r="C25">
+        <v>9052</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>9053</v>
+      </c>
+      <c r="F25" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A55EB-D1BE-491F-8E8D-2D3CC7AC67A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEA3E6B-B55E-4619-9620-44470AB47960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1004,6 +1004,26 @@
         <v>9053</v>
       </c>
       <c r="F25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>9052</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>9053</v>
+      </c>
+      <c r="F26" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEA3E6B-B55E-4619-9620-44470AB47960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BBF1C1-244C-4C59-9411-72633B290E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxPass" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +235,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -341,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -483,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1024,6 +1024,26 @@
         <v>9053</v>
       </c>
       <c r="F26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>104</v>
+      </c>
+      <c r="C27">
+        <v>9052</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>9053</v>
+      </c>
+      <c r="F27" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BBF1C1-244C-4C59-9411-72633B290E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC26664C-5B2A-4F01-8D27-371B0AA849A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,6 +1044,46 @@
         <v>9053</v>
       </c>
       <c r="F27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>108</v>
+      </c>
+      <c r="C28">
+        <v>9052</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>9053</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>112</v>
+      </c>
+      <c r="C29">
+        <v>9052</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>9053</v>
+      </c>
+      <c r="F29" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC26664C-5B2A-4F01-8D27-371B0AA849A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE49C6-C264-43B9-981F-86BFFBC7B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxPass" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1084,6 +1084,26 @@
         <v>9053</v>
       </c>
       <c r="F29" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>116</v>
+      </c>
+      <c r="C30">
+        <v>9052</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>9053</v>
+      </c>
+      <c r="F30" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE49C6-C264-43B9-981F-86BFFBC7B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E478711-7BAE-47D5-9D81-B48EAEF56BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxPass" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1104,6 +1104,26 @@
         <v>9053</v>
       </c>
       <c r="F30" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>120</v>
+      </c>
+      <c r="C31">
+        <v>9052</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>9053</v>
+      </c>
+      <c r="F31" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E478711-7BAE-47D5-9D81-B48EAEF56BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B34771-C957-4155-A869-FBD25F8CDA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1124,6 +1124,46 @@
         <v>9053</v>
       </c>
       <c r="F31" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>124</v>
+      </c>
+      <c r="C32">
+        <v>9052</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>9053</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>9052</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>9053</v>
+      </c>
+      <c r="F33" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B34771-C957-4155-A869-FBD25F8CDA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF9D14-0AC8-4690-861D-EF0AEF713EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1164,6 +1164,26 @@
         <v>9053</v>
       </c>
       <c r="F33" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>132</v>
+      </c>
+      <c r="C34">
+        <v>9052</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>9053</v>
+      </c>
+      <c r="F34" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF9D14-0AC8-4690-861D-EF0AEF713EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED6470C-FDE4-445D-A724-27C09535EA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1184,6 +1184,46 @@
         <v>9053</v>
       </c>
       <c r="F34" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>136</v>
+      </c>
+      <c r="C35">
+        <v>9052</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>9053</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>140</v>
+      </c>
+      <c r="C36">
+        <v>9052</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>9053</v>
+      </c>
+      <c r="F36" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED6470C-FDE4-445D-A724-27C09535EA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8953476-3D3B-4846-A17D-6A201E2E6DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxPass" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1224,6 +1224,26 @@
         <v>9053</v>
       </c>
       <c r="F36" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>144</v>
+      </c>
+      <c r="C37">
+        <v>9052</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>9053</v>
+      </c>
+      <c r="F37" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8953476-3D3B-4846-A17D-6A201E2E6DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CB164A-5E57-4AD8-9580-BBE089A99617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxPass" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,6 +1244,26 @@
         <v>9053</v>
       </c>
       <c r="F37" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>148</v>
+      </c>
+      <c r="C38">
+        <v>9052</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>9053</v>
+      </c>
+      <c r="F38" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CB164A-5E57-4AD8-9580-BBE089A99617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F664EE9C-6413-4359-8298-1F393691DAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1264,6 +1264,26 @@
         <v>9053</v>
       </c>
       <c r="F38" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>152</v>
+      </c>
+      <c r="C39">
+        <v>9052</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>9053</v>
+      </c>
+      <c r="F39" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/BlackFoxPass.xlsx
+++ b/Assets/06.Table/BlackFoxPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F664EE9C-6413-4359-8298-1F393691DAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612A76EF-330A-4E64-93BC-00397684CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1284,6 +1284,66 @@
         <v>9053</v>
       </c>
       <c r="F39" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>156</v>
+      </c>
+      <c r="C40">
+        <v>9052</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>9053</v>
+      </c>
+      <c r="F40" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>160</v>
+      </c>
+      <c r="C41">
+        <v>9052</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>9053</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>164</v>
+      </c>
+      <c r="C42">
+        <v>9052</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>9053</v>
+      </c>
+      <c r="F42" s="7">
         <v>2</v>
       </c>
     </row>
